--- a/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
+++ b/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W2390\git\Advaita\Advaita_TDD\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD3A66-D266-476F-B44F-4266A154E236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78485F2C-6337-46B9-ADF3-1526AD77AA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E70383E1-BC40-413B-9291-F2C41C5ECFCD}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{E70383E1-BC40-413B-9291-F2C41C5ECFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Permissions" sheetId="1" r:id="rId1"/>
     <sheet name="View Permissions" sheetId="2" r:id="rId2"/>
+    <sheet name="User Management" sheetId="3" r:id="rId3"/>
+    <sheet name="Already Existing Records" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="206">
   <si>
     <t>Dataset</t>
   </si>
@@ -422,12 +424,235 @@
   </si>
   <si>
     <t>View Alchemy Sub menu Set 4</t>
+  </si>
+  <si>
+    <t>Can Create Disposition</t>
+  </si>
+  <si>
+    <t>Can Delete Disposition</t>
+  </si>
+  <si>
+    <t>Can Edit Disposition</t>
+  </si>
+  <si>
+    <t>Can See Stage Disposition Icon</t>
+  </si>
+  <si>
+    <t>User Accounts</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Jaskolski Workflow Design</t>
+  </si>
+  <si>
+    <t>Spinka Schmidt</t>
+  </si>
+  <si>
+    <t>Auer Workflow Design</t>
+  </si>
+  <si>
+    <t>Donnelly Romaguera</t>
+  </si>
+  <si>
+    <t>Maggio Workflow Design</t>
+  </si>
+  <si>
+    <t>Welch McClure</t>
+  </si>
+  <si>
+    <t>Jast User Setup</t>
+  </si>
+  <si>
+    <t>Huels Conroy</t>
+  </si>
+  <si>
+    <t>Jast User Setup UA</t>
+  </si>
+  <si>
+    <t>Huels Conroy UA</t>
+  </si>
+  <si>
+    <t>Mraz User Setup</t>
+  </si>
+  <si>
+    <t>Wiza Schulist</t>
+  </si>
+  <si>
+    <t>Mraz User Setup UA</t>
+  </si>
+  <si>
+    <t>Wiza Schulist UA</t>
+  </si>
+  <si>
+    <t>Douglas User Setup</t>
+  </si>
+  <si>
+    <t>Will Sanford</t>
+  </si>
+  <si>
+    <t>Douglas User Setup UA</t>
+  </si>
+  <si>
+    <t>Will Sanford UA</t>
+  </si>
+  <si>
+    <t>Miller User Setup</t>
+  </si>
+  <si>
+    <t>McClure Effertz</t>
+  </si>
+  <si>
+    <t>Miller User Setup UA</t>
+  </si>
+  <si>
+    <t>McClure Effertz UA</t>
+  </si>
+  <si>
+    <t>Langworth User Setup</t>
+  </si>
+  <si>
+    <t>Gaylord Farrell</t>
+  </si>
+  <si>
+    <t>Langworth User Setup UA</t>
+  </si>
+  <si>
+    <t>Gaylord Farrell UA</t>
+  </si>
+  <si>
+    <t>Kris User Setup</t>
+  </si>
+  <si>
+    <t>Bayer Skiles</t>
+  </si>
+  <si>
+    <t>Leannon Workflow Design</t>
+  </si>
+  <si>
+    <t>Turcotte McGlynn</t>
+  </si>
+  <si>
+    <t>Rosenbaum Workflow Design</t>
+  </si>
+  <si>
+    <t>Walker Rogahn</t>
+  </si>
+  <si>
+    <t>Stracke Dataset</t>
+  </si>
+  <si>
+    <t>Veum McClure</t>
+  </si>
+  <si>
+    <t>Kozey Dataset</t>
+  </si>
+  <si>
+    <t>Krajcik Murazik</t>
+  </si>
+  <si>
+    <t>Abernathy User Setup</t>
+  </si>
+  <si>
+    <t>Witting Waters</t>
+  </si>
+  <si>
+    <t>Lubowitz Workflow Design</t>
+  </si>
+  <si>
+    <t>Abshire User Setup</t>
+  </si>
+  <si>
+    <t>OReilly Heidenreich</t>
+  </si>
+  <si>
+    <t>Abshire User Setup UA</t>
+  </si>
+  <si>
+    <t>OReilly Heidenreich UA</t>
+  </si>
+  <si>
+    <t>Cremin Workflow Design</t>
+  </si>
+  <si>
+    <t>Fahey User Setup</t>
+  </si>
+  <si>
+    <t>Miller Hudson</t>
+  </si>
+  <si>
+    <t>Fahey User Setup UA</t>
+  </si>
+  <si>
+    <t>Miller Hudson UA</t>
+  </si>
+  <si>
+    <t>Harris User Setup</t>
+  </si>
+  <si>
+    <t>Treutel Bahringer</t>
+  </si>
+  <si>
+    <t>Harris User Setup UA</t>
+  </si>
+  <si>
+    <t>Treutel Bahringer UA</t>
+  </si>
+  <si>
+    <t>Satterfield Workflow Design</t>
+  </si>
+  <si>
+    <t>Kassulke User Setup</t>
+  </si>
+  <si>
+    <t>Crona Altenwerth</t>
+  </si>
+  <si>
+    <t>Kassulke User Setup UA</t>
+  </si>
+  <si>
+    <t>Crona Altenwerth UA</t>
+  </si>
+  <si>
+    <t>Frami Workflow Design</t>
+  </si>
+  <si>
+    <t>Hilll User Setup</t>
+  </si>
+  <si>
+    <t>Bashirian Schuppe</t>
+  </si>
+  <si>
+    <t>Hilll User Setup UA</t>
+  </si>
+  <si>
+    <t>Bashirian Schuppe UA</t>
+  </si>
+  <si>
+    <t>Christiansen Workflow Design</t>
+  </si>
+  <si>
+    <t>Jacobson User Setup</t>
+  </si>
+  <si>
+    <t>Swaniawski Carter</t>
+  </si>
+  <si>
+    <t>Jacobson User Setup UA</t>
+  </si>
+  <si>
+    <t>Swaniawski Carter UA</t>
+  </si>
+  <si>
+    <t>Nicolas Workflow Design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,473 +1000,485 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B72D75E-A526-48B8-8768-5E71A7467B20}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="39.90625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.453125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>102</v>
       </c>
     </row>
@@ -1255,155 +1492,679 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB95508-A473-47AA-87DA-1FD1F438EC81}">
   <dimension ref="A1:G8"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="31.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.7265625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.1796875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="38.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="34.08984375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D7" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D26F4F-D66B-47E5-9200-43D268325D01}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F8" t="s">
-        <v>100</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C32E9AF-68B5-493F-9670-5A7ACC01F8B3}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
+++ b/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="226">
   <si>
     <t>Dataset</t>
   </si>
@@ -646,6 +646,66 @@
   </si>
   <si>
     <t>Nicolas Workflow Design</t>
+  </si>
+  <si>
+    <t>Anderson Workflow Design</t>
+  </si>
+  <si>
+    <t>OKon Workflow Design</t>
+  </si>
+  <si>
+    <t>Hilpert Workflow Design</t>
+  </si>
+  <si>
+    <t>Larson Kohler</t>
+  </si>
+  <si>
+    <t>Terry Workflow Design</t>
+  </si>
+  <si>
+    <t>Tromp Terry</t>
+  </si>
+  <si>
+    <t>Stroman Workflow Design</t>
+  </si>
+  <si>
+    <t>Donnelly Reichel</t>
+  </si>
+  <si>
+    <t>Ferry Workflow Design</t>
+  </si>
+  <si>
+    <t>Hackett Bartoletti</t>
+  </si>
+  <si>
+    <t>Gutmann Workflow Design</t>
+  </si>
+  <si>
+    <t>Borer Graham</t>
+  </si>
+  <si>
+    <t>Harvey Workflow Design</t>
+  </si>
+  <si>
+    <t>Gaylord Zieme</t>
+  </si>
+  <si>
+    <t>Jerde User Setup</t>
+  </si>
+  <si>
+    <t>Jerde User Setup UA</t>
+  </si>
+  <si>
+    <t>Gaylord Zieme UA</t>
+  </si>
+  <si>
+    <t>Hoppe Workflow Design</t>
+  </si>
+  <si>
+    <t>Runolfsson Welch</t>
+  </si>
+  <si>
+    <t>Tillman Boyer</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1708,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D26F4F-D66B-47E5-9200-43D268325D01}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
@@ -2138,6 +2198,120 @@
       </c>
       <c r="B60" t="s" s="0">
         <v>205</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s" s="0">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
+++ b/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="243">
   <si>
     <t>Dataset</t>
   </si>
@@ -706,6 +706,57 @@
   </si>
   <si>
     <t>Tillman Boyer</t>
+  </si>
+  <si>
+    <t>EmployeeR QA</t>
+  </si>
+  <si>
+    <t>EmployeeS QA</t>
+  </si>
+  <si>
+    <t>EmployeeT QA</t>
+  </si>
+  <si>
+    <t>EmployeeV  QA</t>
+  </si>
+  <si>
+    <t>EmployeeW  QA</t>
+  </si>
+  <si>
+    <t>DemoEmp  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpA  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpc  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpc  QA1</t>
+  </si>
+  <si>
+    <t>DemoEmpD  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpE  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpF  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpG  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpH  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpI  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpJ  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpK  QA</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1759,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D26F4F-D66B-47E5-9200-43D268325D01}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
@@ -2305,13 +2356,94 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>226</v>
+      </c>
       <c r="B74" t="s" s="0">
         <v>223</v>
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>227</v>
+      </c>
       <c r="B75" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
+++ b/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="248">
   <si>
     <t>Dataset</t>
   </si>
@@ -757,6 +757,21 @@
   </si>
   <si>
     <t>DemoEmpK  QA</t>
+  </si>
+  <si>
+    <t>DemoEmpL  QA1</t>
+  </si>
+  <si>
+    <t>DemoEmpL QA1</t>
+  </si>
+  <si>
+    <t>DemoEmpL QA2</t>
+  </si>
+  <si>
+    <t>DemoEmpM QA1</t>
+  </si>
+  <si>
+    <t>DemoEmpM QA2</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D26F4F-D66B-47E5-9200-43D268325D01}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
@@ -2444,6 +2459,91 @@
     <row r="90">
       <c r="A90" t="s" s="0">
         <v>242</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
+++ b/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W2390\git\Advaita\Advaita_TDD\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W2390\IdeaProjects\Advaita\Advaita_TDD\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78485F2C-6337-46B9-ADF3-1526AD77AA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BB0444-425E-44A2-9585-6BC25C89C639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{E70383E1-BC40-413B-9291-F2C41C5ECFCD}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{E70383E1-BC40-413B-9291-F2C41C5ECFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Permissions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="269">
   <si>
     <t>Dataset</t>
   </si>
@@ -757,6 +757,84 @@
   </si>
   <si>
     <t>DemoEmpK  QA</t>
+  </si>
+  <si>
+    <t>Metz Alchemy</t>
+  </si>
+  <si>
+    <t>roleNameForAlchemy</t>
+  </si>
+  <si>
+    <t>Pagac Workflow Design</t>
+  </si>
+  <si>
+    <t>LubowitzForAlchemy</t>
+  </si>
+  <si>
+    <t>Raynor Workflow Design</t>
+  </si>
+  <si>
+    <t>Lesch User Setup</t>
+  </si>
+  <si>
+    <t>Kautzer Workflow Design</t>
+  </si>
+  <si>
+    <t>Schneider Conroy</t>
+  </si>
+  <si>
+    <t>Bruen Workflow Design</t>
+  </si>
+  <si>
+    <t>Lowe Baumbach</t>
+  </si>
+  <si>
+    <t>Skiles Workflow Design</t>
+  </si>
+  <si>
+    <t>Rosenbaum Vandervort</t>
+  </si>
+  <si>
+    <t>Kuhlman Workflow Design</t>
+  </si>
+  <si>
+    <t>Kreiger Hodkiewicz</t>
+  </si>
+  <si>
+    <t>Grady Workflow Design</t>
+  </si>
+  <si>
+    <t>Hane Wiza</t>
+  </si>
+  <si>
+    <t>Johns Workflow Design</t>
+  </si>
+  <si>
+    <t>OKon McClure</t>
+  </si>
+  <si>
+    <t>Kovacek Workflow Design</t>
+  </si>
+  <si>
+    <t>Lehner Heidenreich</t>
+  </si>
+  <si>
+    <t>Rowe Workflow Design</t>
+  </si>
+  <si>
+    <t>Harris Schowalter</t>
+  </si>
+  <si>
+    <t>Kuhn User Setup</t>
+  </si>
+  <si>
+    <t>Kuhn User Setup UA</t>
+  </si>
+  <si>
+    <t>Harris Schowalter UA</t>
+  </si>
+  <si>
+    <t>MonahanForAlchemy</t>
   </si>
 </sst>
 </file>
@@ -813,9 +891,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -853,7 +931,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -959,7 +1037,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1101,7 +1179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1111,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B72D75E-A526-48B8-8768-5E71A7467B20}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1759,7 +1837,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D26F4F-D66B-47E5-9200-43D268325D01}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
@@ -1931,7 +2009,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
         <v>167</v>
       </c>
@@ -1939,7 +2017,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
         <v>169</v>
       </c>
@@ -1947,7 +2025,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
         <v>171</v>
       </c>
@@ -1955,7 +2033,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
         <v>173</v>
       </c>
@@ -1963,7 +2041,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
         <v>175</v>
       </c>
@@ -1971,7 +2049,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s" s="0">
         <v>175</v>
       </c>
@@ -1979,7 +2057,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s" s="0">
         <v>175</v>
       </c>
@@ -1987,7 +2065,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s" s="0">
         <v>178</v>
       </c>
@@ -1995,7 +2073,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s" s="0">
         <v>178</v>
       </c>
@@ -2003,7 +2081,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s" s="0">
         <v>180</v>
       </c>
@@ -2011,7 +2089,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
         <v>178</v>
       </c>
@@ -2019,7 +2097,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
         <v>180</v>
       </c>
@@ -2027,7 +2105,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
         <v>178</v>
       </c>
@@ -2035,7 +2113,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
         <v>183</v>
       </c>
@@ -2043,7 +2121,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
         <v>183</v>
       </c>
@@ -2051,7 +2129,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s" s="0">
         <v>185</v>
       </c>
@@ -2059,7 +2137,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
         <v>187</v>
       </c>
@@ -2067,7 +2145,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s" s="0">
         <v>187</v>
       </c>
@@ -2075,7 +2153,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s" s="0">
         <v>189</v>
       </c>
@@ -2083,7 +2161,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s" s="0">
         <v>187</v>
       </c>
@@ -2091,7 +2169,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s" s="0">
         <v>189</v>
       </c>
@@ -2099,7 +2177,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s" s="0">
         <v>187</v>
       </c>
@@ -2107,7 +2185,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s" s="0">
         <v>192</v>
       </c>
@@ -2115,7 +2193,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s" s="0">
         <v>192</v>
       </c>
@@ -2123,7 +2201,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s" s="0">
         <v>194</v>
       </c>
@@ -2131,7 +2209,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s" s="0">
         <v>192</v>
       </c>
@@ -2139,7 +2217,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s" s="0">
         <v>194</v>
       </c>
@@ -2147,7 +2225,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s" s="0">
         <v>192</v>
       </c>
@@ -2155,7 +2233,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s" s="0">
         <v>197</v>
       </c>
@@ -2163,7 +2241,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s" s="0">
         <v>197</v>
       </c>
@@ -2171,7 +2249,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s" s="0">
         <v>199</v>
       </c>
@@ -2179,7 +2257,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s" s="0">
         <v>197</v>
       </c>
@@ -2187,7 +2265,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s" s="0">
         <v>199</v>
       </c>
@@ -2195,7 +2273,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s" s="0">
         <v>197</v>
       </c>
@@ -2203,7 +2281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s" s="0">
         <v>202</v>
       </c>
@@ -2211,7 +2289,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s" s="0">
         <v>202</v>
       </c>
@@ -2219,7 +2297,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s" s="0">
         <v>204</v>
       </c>
@@ -2227,7 +2305,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s" s="0">
         <v>202</v>
       </c>
@@ -2235,7 +2313,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s" s="0">
         <v>204</v>
       </c>
@@ -2243,7 +2321,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s" s="0">
         <v>202</v>
       </c>
@@ -2251,7 +2329,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="0">
         <v>209</v>
       </c>
@@ -2259,7 +2337,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s" s="0">
         <v>211</v>
       </c>
@@ -2267,7 +2345,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s" s="0">
         <v>213</v>
       </c>
@@ -2275,7 +2353,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s" s="0">
         <v>215</v>
       </c>
@@ -2283,7 +2361,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="0">
         <v>217</v>
       </c>
@@ -2291,7 +2369,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="0">
         <v>219</v>
       </c>
@@ -2299,7 +2377,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s" s="0">
         <v>219</v>
       </c>
@@ -2307,7 +2385,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s" s="0">
         <v>219</v>
       </c>
@@ -2315,7 +2393,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="0">
         <v>219</v>
       </c>
@@ -2323,7 +2401,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s" s="0">
         <v>219</v>
       </c>
@@ -2331,7 +2409,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="0">
         <v>222</v>
       </c>
@@ -2339,7 +2417,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="0">
         <v>224</v>
       </c>
@@ -2347,7 +2425,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s" s="0">
         <v>225</v>
       </c>
@@ -2355,7 +2433,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s" s="0">
         <v>226</v>
       </c>
@@ -2363,7 +2441,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s" s="0">
         <v>227</v>
       </c>
@@ -2371,79 +2449,207 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s" s="0">
         <v>228</v>
       </c>
-    </row>
-    <row r="77">
+      <c r="B76" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s" s="0">
         <v>229</v>
       </c>
-    </row>
-    <row r="78">
+      <c r="B77" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s" s="0">
         <v>230</v>
       </c>
-    </row>
-    <row r="79">
+      <c r="B78" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="0">
         <v>231</v>
       </c>
-    </row>
-    <row r="80">
+      <c r="B79" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s" s="0">
         <v>232</v>
       </c>
-    </row>
-    <row r="81">
+      <c r="B80" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="0">
         <v>233</v>
       </c>
-    </row>
-    <row r="82">
+      <c r="B81" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="0">
         <v>234</v>
       </c>
-    </row>
-    <row r="83">
+      <c r="B82" t="s" s="0">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s" s="0">
         <v>235</v>
       </c>
-    </row>
-    <row r="84">
+      <c r="B83" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s" s="0">
         <v>236</v>
       </c>
-    </row>
-    <row r="85">
+      <c r="B84" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s" s="0">
         <v>237</v>
       </c>
-    </row>
-    <row r="86">
+      <c r="B85" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s" s="0">
         <v>238</v>
       </c>
-    </row>
-    <row r="87">
+      <c r="B86" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s" s="0">
         <v>239</v>
       </c>
-    </row>
-    <row r="88">
+      <c r="B87" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s" s="0">
         <v>240</v>
       </c>
-    </row>
-    <row r="89">
+      <c r="B88" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s" s="0">
         <v>241</v>
       </c>
-    </row>
-    <row r="90">
+      <c r="B89" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s" s="0">
         <v>242</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2455,7 +2661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C32E9AF-68B5-493F-9670-5A7ACC01F8B3}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
+++ b/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="289">
   <si>
     <t>Dataset</t>
   </si>
@@ -835,6 +835,66 @@
   </si>
   <si>
     <t>MonahanForAlchemy</t>
+  </si>
+  <si>
+    <t>Mills Workflow Design</t>
+  </si>
+  <si>
+    <t>Veum Kuhn</t>
+  </si>
+  <si>
+    <t>Nicolas User Setup</t>
+  </si>
+  <si>
+    <t>Turner Workflow Design</t>
+  </si>
+  <si>
+    <t>Parker Ferry</t>
+  </si>
+  <si>
+    <t>Spencer Workflow Design</t>
+  </si>
+  <si>
+    <t>Larson Erdman</t>
+  </si>
+  <si>
+    <t>Kuhic Workflow Design</t>
+  </si>
+  <si>
+    <t>Mayert Gaylord</t>
+  </si>
+  <si>
+    <t>Kub Workflow Design</t>
+  </si>
+  <si>
+    <t>Herzog OConnell</t>
+  </si>
+  <si>
+    <t>Parisian Workflow Design</t>
+  </si>
+  <si>
+    <t>Bernhard Zboncak</t>
+  </si>
+  <si>
+    <t>McDermott Workflow Design</t>
+  </si>
+  <si>
+    <t>Mueller Veum</t>
+  </si>
+  <si>
+    <t>Turcotte Workflow Design</t>
+  </si>
+  <si>
+    <t>Grant Sipes</t>
+  </si>
+  <si>
+    <t>James Agent</t>
+  </si>
+  <si>
+    <t>James Team Lead</t>
+  </si>
+  <si>
+    <t>James Admin</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1897,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D26F4F-D66B-47E5-9200-43D268325D01}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
@@ -2621,35 +2681,145 @@
       <c r="A97" t="s" s="0">
         <v>262</v>
       </c>
+      <c r="B97" t="s" s="0">
+        <v>269</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
         <v>264</v>
       </c>
+      <c r="B98" t="s" s="0">
+        <v>269</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
         <v>264</v>
       </c>
+      <c r="B99" t="s" s="0">
+        <v>271</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
         <v>264</v>
       </c>
+      <c r="B100" t="s" s="0">
+        <v>272</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
         <v>264</v>
       </c>
+      <c r="B101" t="s" s="0">
+        <v>274</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
         <v>264</v>
       </c>
+      <c r="B102" t="s" s="0">
+        <v>276</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
         <v>267</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
+++ b/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="292">
   <si>
     <t>Dataset</t>
   </si>
@@ -895,6 +895,15 @@
   </si>
   <si>
     <t>James Admin</t>
+  </si>
+  <si>
+    <t>EmployeeC  QA</t>
+  </si>
+  <si>
+    <t>EmployeeF  QA</t>
+  </si>
+  <si>
+    <t>EmployeeG  QA</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1906,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D26F4F-D66B-47E5-9200-43D268325D01}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
@@ -2820,6 +2829,21 @@
     <row r="119">
       <c r="A119" t="s" s="0">
         <v>288</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
+++ b/Advaita_TDD/ExcelFiles/PermissionsToSelect.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="228">
   <si>
     <t>Dataset</t>
   </si>
@@ -706,6 +706,12 @@
   </si>
   <si>
     <t>Tillman Boyer</t>
+  </si>
+  <si>
+    <t>das Abhijit</t>
+  </si>
+  <si>
+    <t>das Abhijit@wyzminz.com</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1714,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D26F4F-D66B-47E5-9200-43D268325D01}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
@@ -2305,13 +2311,114 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>226</v>
+      </c>
       <c r="B74" t="s" s="0">
         <v>223</v>
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>226</v>
+      </c>
       <c r="B75" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
